--- a/04_Ablagekonzept/Ablagekonzept.xlsx
+++ b/04_Ablagekonzept/Ablagekonzept.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tbzedu-my.sharepoint.com/personal/jonathan_russ_edu_tbz_ch/Documents/M231 Datenschutz u. -sicherheit anw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonathan/Documents/GitHub/M231-Portfolio/04_Ablagekonzept/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{C1A2C5FA-651C-4D79-B5C5-8CC2C2791EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76E46CFA-85BB-0448-B804-658677311D9A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFB745F-3082-CD43-8784-A8C0E5757C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="50">
   <si>
     <t xml:space="preserve">Applikation </t>
   </si>
@@ -156,9 +156,6 @@
     <t>Automatisch auf iCloud Drive</t>
   </si>
   <si>
-    <t>Automatisch auf OneDrive</t>
-  </si>
-  <si>
     <t>Wöchentlich</t>
   </si>
   <si>
@@ -166,6 +163,18 @@
   </si>
   <si>
     <t>Sehr Schlimm: Unternehmensdaten (von Kunden)</t>
+  </si>
+  <si>
+    <t>MacBook</t>
+  </si>
+  <si>
+    <t>MacOS</t>
+  </si>
+  <si>
+    <t>Zusätzliches Backup auf eine externe Festplatte</t>
+  </si>
+  <si>
+    <t>Schlimm: Private Daten</t>
   </si>
 </sst>
 </file>
@@ -218,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -241,11 +250,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -271,42 +304,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -742,6 +750,37 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -756,21 +795,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B4E6536-922F-4F19-99D2-8A1060838D46}" name="Tabelle1" displayName="Tabelle1" ref="A1:L8" totalsRowShown="0" headerRowDxfId="0" dataDxfId="13">
-  <autoFilter ref="A1:L8" xr:uid="{A649623B-AB03-4785-BBE3-92D84F67E103}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B4E6536-922F-4F19-99D2-8A1060838D46}" name="Tabelle1" displayName="Tabelle1" ref="A1:L10" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L10" xr:uid="{A649623B-AB03-4785-BBE3-92D84F67E103}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{DA20D175-854B-41B6-A707-822A0D52D82C}" name="Gerät (Speicherort)" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{462F835E-BEE1-4D1B-9737-450396A57494}" name="Betriebssystem " dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{3526064F-6056-424B-90A9-35215A433F61}" name="Applikation " dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{D70180A8-294C-4907-8B98-0C23E2BCE55C}" name="Art der Daten " dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{1B35DB29-2373-4B0C-B66C-49C06E4EEA6D}" name="Auf zentralem Server gespeichert" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{6187F229-7078-4E4F-88C1-D3682822E84B}" name="User friendly privacy policy" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{C010B599-F3B0-40C8-9B38-8630131AD6A3}" name="Folgen von Datenverlust (/Zugriffsverlust)" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{C3759DE3-90C2-4611-9B7C-ED348C1C8573}" name="Folgen von Datendiebstahl" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{901CE58E-8D13-44D5-9036-B90E31FD4A3F}" name="Backup vorhanden?" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{30B9F55D-DE38-411B-8DC2-25D8AE63E4F4}" name="Art des Backups" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{1F6641E0-FFE0-4847-9DB6-2EDC73E1AC85}" name="Häufigkeit des Backups" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{F5A20289-FEA1-4DD6-9375-33D551E459D4}" name="Massnahmen" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{DA20D175-854B-41B6-A707-822A0D52D82C}" name="Gerät (Speicherort)" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{462F835E-BEE1-4D1B-9737-450396A57494}" name="Betriebssystem " dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{3526064F-6056-424B-90A9-35215A433F61}" name="Applikation " dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{D70180A8-294C-4907-8B98-0C23E2BCE55C}" name="Art der Daten " dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{1B35DB29-2373-4B0C-B66C-49C06E4EEA6D}" name="Auf zentralem Server gespeichert" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{6187F229-7078-4E4F-88C1-D3682822E84B}" name="User friendly privacy policy" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{C010B599-F3B0-40C8-9B38-8630131AD6A3}" name="Folgen von Datenverlust (/Zugriffsverlust)" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{C3759DE3-90C2-4611-9B7C-ED348C1C8573}" name="Folgen von Datendiebstahl" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{901CE58E-8D13-44D5-9036-B90E31FD4A3F}" name="Backup vorhanden?" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{30B9F55D-DE38-411B-8DC2-25D8AE63E4F4}" name="Art des Backups" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{1F6641E0-FFE0-4847-9DB6-2EDC73E1AC85}" name="Häufigkeit des Backups" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{F5A20289-FEA1-4DD6-9375-33D551E459D4}" name="Massnahmen" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1039,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1064,7 +1103,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -1132,7 +1171,7 @@
         <v>42</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>8</v>
@@ -1246,7 +1285,7 @@
         <v>42</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>8</v>
@@ -1275,7 +1314,7 @@
         <v>38</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>11</v>
@@ -1284,7 +1323,7 @@
         <v>42</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>8</v>
@@ -1313,16 +1352,16 @@
         <v>39</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>8</v>
@@ -1363,83 +1402,159 @@
         <v>37</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>29</v>
+      <c r="A9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="L9" s="8" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>29</v>
+      <c r="A10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>18</v>
+      <c r="L12" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
